--- a/modelos/OBAGEM4428025/OBAGEM4428025_Sell in_metricas.xlsx
+++ b/modelos/OBAGEM4428025/OBAGEM4428025_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44964</v>
       </c>
       <c r="B2" t="n">
-        <v>58.38905866726738</v>
+        <v>71.67551615704465</v>
       </c>
       <c r="C2" t="n">
-        <v>29.20243237591219</v>
+        <v>39.37956689556172</v>
       </c>
       <c r="D2" t="n">
-        <v>86.74241196471732</v>
+        <v>103.3286724904945</v>
       </c>
       <c r="E2" t="n">
         <v>288</v>
@@ -496,13 +496,13 @@
         <v>44971</v>
       </c>
       <c r="B3" t="n">
-        <v>96.55420538131902</v>
+        <v>97.79402835718737</v>
       </c>
       <c r="C3" t="n">
-        <v>59.07296392390577</v>
+        <v>57.40409544470718</v>
       </c>
       <c r="D3" t="n">
-        <v>134.3351644036526</v>
+        <v>135.0826448357647</v>
       </c>
       <c r="E3" t="n">
         <v>48</v>
@@ -516,13 +516,13 @@
         <v>44980</v>
       </c>
       <c r="B4" t="n">
-        <v>-10.22748808545185</v>
+        <v>-14.17399204377283</v>
       </c>
       <c r="C4" t="n">
-        <v>-49.0490666928078</v>
+        <v>-58.59046767344769</v>
       </c>
       <c r="D4" t="n">
-        <v>24.83976659436988</v>
+        <v>22.02953622683804</v>
       </c>
       <c r="E4" t="n">
         <v>36</v>
@@ -536,13 +536,13 @@
         <v>44985</v>
       </c>
       <c r="B5" t="n">
-        <v>62.43614091605738</v>
+        <v>64.41694515908286</v>
       </c>
       <c r="C5" t="n">
-        <v>27.04006862771532</v>
+        <v>25.03594111529572</v>
       </c>
       <c r="D5" t="n">
-        <v>99.99983558055511</v>
+        <v>102.9665484199391</v>
       </c>
       <c r="E5" t="n">
         <v>36</v>
@@ -556,13 +556,13 @@
         <v>44988</v>
       </c>
       <c r="B6" t="n">
-        <v>38.5890293847294</v>
+        <v>43.92877523437707</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1307500830419483</v>
+        <v>6.107633893629619</v>
       </c>
       <c r="D6" t="n">
-        <v>78.57249957562942</v>
+        <v>80.08572973825851</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
@@ -576,13 +576,13 @@
         <v>44992</v>
       </c>
       <c r="B7" t="n">
-        <v>96.22116283430402</v>
+        <v>94.94069616576569</v>
       </c>
       <c r="C7" t="n">
-        <v>60.40197935438708</v>
+        <v>59.17785727581863</v>
       </c>
       <c r="D7" t="n">
-        <v>132.5656099172743</v>
+        <v>133.4971045104201</v>
       </c>
       <c r="E7" t="n">
         <v>48</v>
@@ -596,13 +596,13 @@
         <v>44999</v>
       </c>
       <c r="B8" t="n">
-        <v>108.5285986176688</v>
+        <v>106.2585482254672</v>
       </c>
       <c r="C8" t="n">
-        <v>75.40326383376332</v>
+        <v>66.55002497749781</v>
       </c>
       <c r="D8" t="n">
-        <v>149.5775321496251</v>
+        <v>142.2002441519415</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
@@ -616,13 +616,13 @@
         <v>45006</v>
       </c>
       <c r="B9" t="n">
-        <v>77.24921943841494</v>
+        <v>81.2984870698314</v>
       </c>
       <c r="C9" t="n">
-        <v>41.39073855500333</v>
+        <v>41.67501036116712</v>
       </c>
       <c r="D9" t="n">
-        <v>114.1338497437729</v>
+        <v>121.1180803374871</v>
       </c>
       <c r="E9" t="n">
         <v>36</v>
@@ -636,13 +636,13 @@
         <v>45020</v>
       </c>
       <c r="B10" t="n">
-        <v>34.8810384630866</v>
+        <v>34.40835336263357</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.795600754658566</v>
+        <v>-4.67462467117041</v>
       </c>
       <c r="D10" t="n">
-        <v>72.98381327910207</v>
+        <v>76.77857694974493</v>
       </c>
       <c r="E10" t="n">
         <v>60</v>
@@ -656,13 +656,13 @@
         <v>45027</v>
       </c>
       <c r="B11" t="n">
-        <v>42.93417569200216</v>
+        <v>40.97890931569938</v>
       </c>
       <c r="C11" t="n">
-        <v>6.087143033321273</v>
+        <v>0.3176859355652897</v>
       </c>
       <c r="D11" t="n">
-        <v>78.57314881408844</v>
+        <v>77.23473181298014</v>
       </c>
       <c r="E11" t="n">
         <v>84</v>
@@ -676,13 +676,13 @@
         <v>45040</v>
       </c>
       <c r="B12" t="n">
-        <v>-38.62231581021968</v>
+        <v>-38.26228709615715</v>
       </c>
       <c r="C12" t="n">
-        <v>-74.29866153260882</v>
+        <v>-79.27406465689565</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7830479928268278</v>
+        <v>1.378207153053474</v>
       </c>
       <c r="E12" t="n">
         <v>120</v>
@@ -696,13 +696,13 @@
         <v>45048</v>
       </c>
       <c r="B13" t="n">
-        <v>39.48101056684532</v>
+        <v>37.44750721617903</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.122481210973138</v>
+        <v>-5.160684186687917</v>
       </c>
       <c r="D13" t="n">
-        <v>78.37802613698608</v>
+        <v>80.22203680229833</v>
       </c>
       <c r="E13" t="n">
         <v>48</v>
@@ -716,13 +716,13 @@
         <v>45055</v>
       </c>
       <c r="B14" t="n">
-        <v>32.72425349606022</v>
+        <v>30.50696090320871</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.521904213763936</v>
+        <v>-11.13554988273109</v>
       </c>
       <c r="D14" t="n">
-        <v>74.03203441349663</v>
+        <v>75.30241246729261</v>
       </c>
       <c r="E14" t="n">
         <v>36</v>
@@ -736,13 +736,13 @@
         <v>45062</v>
       </c>
       <c r="B15" t="n">
-        <v>40.14769540463122</v>
+        <v>37.76971108565729</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.518117123836801</v>
+        <v>-0.01459840684680504</v>
       </c>
       <c r="D15" t="n">
-        <v>83.03587080758437</v>
+        <v>77.9147913876876</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
@@ -817,19 +817,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2136.980654690592</v>
+        <v>2517.42947760858</v>
       </c>
       <c r="C2" t="n">
-        <v>46.22748808545185</v>
+        <v>50.17399204377283</v>
       </c>
       <c r="D2" t="n">
-        <v>46.22748808545185</v>
+        <v>50.17399204377283</v>
       </c>
       <c r="E2" t="n">
-        <v>1.284096891262551</v>
+        <v>1.393722001215912</v>
       </c>
       <c r="F2" t="n">
-        <v>1.284096891262551</v>
+        <v>1.393722001215912</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -843,22 +843,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>212.8397783884979</v>
+        <v>397.1560823423209</v>
       </c>
       <c r="C3" t="n">
-        <v>14.5890293847294</v>
+        <v>19.92877523437707</v>
       </c>
       <c r="D3" t="n">
-        <v>14.5890293847294</v>
+        <v>19.92877523437707</v>
       </c>
       <c r="E3" t="n">
-        <v>0.607876224363725</v>
+        <v>0.8303656347657112</v>
       </c>
       <c r="F3" t="n">
-        <v>0.607876224363725</v>
+        <v>0.8303656347657112</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4661848738714859</v>
+        <v>0.5867550287964447</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -869,19 +869,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>25161.03907299707</v>
+        <v>25046.95151690647</v>
       </c>
       <c r="C4" t="n">
-        <v>158.6223158102197</v>
+        <v>158.2622870961571</v>
       </c>
       <c r="D4" t="n">
-        <v>158.6223158102197</v>
+        <v>158.2622870961571</v>
       </c>
       <c r="E4" t="n">
-        <v>1.321852631751831</v>
+        <v>1.318852392467976</v>
       </c>
       <c r="F4" t="n">
-        <v>1.321852631751831</v>
+        <v>1.318852392467976</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -895,22 +895,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>6376.580729780631</v>
+        <v>5856.04129080219</v>
       </c>
       <c r="C5" t="n">
-        <v>79.85349541366759</v>
+        <v>76.52477566646105</v>
       </c>
       <c r="D5" t="n">
-        <v>53.15704415519394</v>
+        <v>52.67828810074786</v>
       </c>
       <c r="E5" t="n">
-        <v>1.067020815185035</v>
+        <v>1.0636464612551</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7972602129608772</v>
+        <v>0.7893595877523016</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7048729940343295</v>
+        <v>0.7111301942919486</v>
       </c>
       <c r="H5" t="n">
         <v>0.4545454545454541</v>

--- a/modelos/OBAGEM4428025/OBAGEM4428025_Sell in_metricas.xlsx
+++ b/modelos/OBAGEM4428025/OBAGEM4428025_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44964</v>
       </c>
       <c r="B2" t="n">
-        <v>71.67551615704465</v>
+        <v>69.59302307112617</v>
       </c>
       <c r="C2" t="n">
-        <v>39.37956689556172</v>
+        <v>33.88209984006837</v>
       </c>
       <c r="D2" t="n">
-        <v>103.3286724904945</v>
+        <v>100.046590839444</v>
       </c>
       <c r="E2" t="n">
         <v>288</v>
@@ -496,13 +496,13 @@
         <v>44971</v>
       </c>
       <c r="B3" t="n">
-        <v>97.79402835718737</v>
+        <v>107.1258042054921</v>
       </c>
       <c r="C3" t="n">
-        <v>57.40409544470718</v>
+        <v>67.21972371865218</v>
       </c>
       <c r="D3" t="n">
-        <v>135.0826448357647</v>
+        <v>147.676136278929</v>
       </c>
       <c r="E3" t="n">
         <v>48</v>
@@ -516,13 +516,13 @@
         <v>44980</v>
       </c>
       <c r="B4" t="n">
-        <v>-14.17399204377283</v>
+        <v>-20.96683803288543</v>
       </c>
       <c r="C4" t="n">
-        <v>-58.59046767344769</v>
+        <v>-60.82512471830602</v>
       </c>
       <c r="D4" t="n">
-        <v>22.02953622683804</v>
+        <v>19.60809714522856</v>
       </c>
       <c r="E4" t="n">
         <v>36</v>
@@ -536,13 +536,13 @@
         <v>44985</v>
       </c>
       <c r="B5" t="n">
-        <v>64.41694515908286</v>
+        <v>60.23298832524795</v>
       </c>
       <c r="C5" t="n">
-        <v>25.03594111529572</v>
+        <v>18.33179240690819</v>
       </c>
       <c r="D5" t="n">
-        <v>102.9665484199391</v>
+        <v>96.22974551117912</v>
       </c>
       <c r="E5" t="n">
         <v>36</v>
@@ -556,13 +556,13 @@
         <v>44988</v>
       </c>
       <c r="B6" t="n">
-        <v>43.92877523437707</v>
+        <v>34.54323822283349</v>
       </c>
       <c r="C6" t="n">
-        <v>6.107633893629619</v>
+        <v>-4.055903303988704</v>
       </c>
       <c r="D6" t="n">
-        <v>80.08572973825851</v>
+        <v>74.99698277112428</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
@@ -576,13 +576,13 @@
         <v>44992</v>
       </c>
       <c r="B7" t="n">
-        <v>94.94069616576569</v>
+        <v>90.39213823386609</v>
       </c>
       <c r="C7" t="n">
-        <v>59.17785727581863</v>
+        <v>51.02125595877516</v>
       </c>
       <c r="D7" t="n">
-        <v>133.4971045104201</v>
+        <v>130.7257923162297</v>
       </c>
       <c r="E7" t="n">
         <v>48</v>
@@ -596,13 +596,13 @@
         <v>44999</v>
       </c>
       <c r="B8" t="n">
-        <v>106.2585482254672</v>
+        <v>109.8994001881512</v>
       </c>
       <c r="C8" t="n">
-        <v>66.55002497749781</v>
+        <v>70.71677550032975</v>
       </c>
       <c r="D8" t="n">
-        <v>142.2002441519415</v>
+        <v>149.2570548558778</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
@@ -616,13 +616,13 @@
         <v>45006</v>
       </c>
       <c r="B9" t="n">
-        <v>81.2984870698314</v>
+        <v>90.14485216057416</v>
       </c>
       <c r="C9" t="n">
-        <v>41.67501036116712</v>
+        <v>49.5854335655551</v>
       </c>
       <c r="D9" t="n">
-        <v>121.1180803374871</v>
+        <v>130.746689738933</v>
       </c>
       <c r="E9" t="n">
         <v>36</v>
@@ -636,13 +636,13 @@
         <v>45020</v>
       </c>
       <c r="B10" t="n">
-        <v>34.40835336263357</v>
+        <v>38.30169538929096</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.67462467117041</v>
+        <v>-3.680413120647819</v>
       </c>
       <c r="D10" t="n">
-        <v>76.77857694974493</v>
+        <v>79.83189799399509</v>
       </c>
       <c r="E10" t="n">
         <v>60</v>
@@ -656,13 +656,13 @@
         <v>45027</v>
       </c>
       <c r="B11" t="n">
-        <v>40.97890931569938</v>
+        <v>43.17698675074352</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3176859355652897</v>
+        <v>1.328498211633235</v>
       </c>
       <c r="D11" t="n">
-        <v>77.23473181298014</v>
+        <v>82.51004815947063</v>
       </c>
       <c r="E11" t="n">
         <v>84</v>
@@ -676,13 +676,13 @@
         <v>45040</v>
       </c>
       <c r="B12" t="n">
-        <v>-38.26228709615715</v>
+        <v>-25.88080736275847</v>
       </c>
       <c r="C12" t="n">
-        <v>-79.27406465689565</v>
+        <v>-65.89903080125107</v>
       </c>
       <c r="D12" t="n">
-        <v>1.378207153053474</v>
+        <v>18.26918908994063</v>
       </c>
       <c r="E12" t="n">
         <v>120</v>
@@ -696,13 +696,13 @@
         <v>45048</v>
       </c>
       <c r="B13" t="n">
-        <v>37.44750721617903</v>
+        <v>41.48428181581499</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.160684186687917</v>
+        <v>-1.277659497725823</v>
       </c>
       <c r="D13" t="n">
-        <v>80.22203680229833</v>
+        <v>82.92176813599936</v>
       </c>
       <c r="E13" t="n">
         <v>48</v>
@@ -716,13 +716,13 @@
         <v>45055</v>
       </c>
       <c r="B14" t="n">
-        <v>30.50696090320871</v>
+        <v>29.84373322976138</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.13554988273109</v>
+        <v>-15.50654637921041</v>
       </c>
       <c r="D14" t="n">
-        <v>75.30241246729261</v>
+        <v>73.77425592562936</v>
       </c>
       <c r="E14" t="n">
         <v>36</v>
@@ -736,13 +736,13 @@
         <v>45062</v>
       </c>
       <c r="B15" t="n">
-        <v>37.76971108565729</v>
+        <v>39.34691575332356</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01459840684680504</v>
+        <v>-4.331658093675609</v>
       </c>
       <c r="D15" t="n">
-        <v>77.9147913876876</v>
+        <v>81.87470375720031</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
@@ -817,19 +817,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2517.42947760858</v>
+        <v>3245.220635465002</v>
       </c>
       <c r="C2" t="n">
-        <v>50.17399204377283</v>
+        <v>56.96683803288543</v>
       </c>
       <c r="D2" t="n">
-        <v>50.17399204377283</v>
+        <v>56.96683803288543</v>
       </c>
       <c r="E2" t="n">
-        <v>1.393722001215912</v>
+        <v>1.582412167580151</v>
       </c>
       <c r="F2" t="n">
-        <v>1.393722001215912</v>
+        <v>1.582412167580151</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -843,22 +843,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>397.1560823423209</v>
+        <v>111.159872223417</v>
       </c>
       <c r="C3" t="n">
-        <v>19.92877523437707</v>
+        <v>10.54323822283349</v>
       </c>
       <c r="D3" t="n">
-        <v>19.92877523437707</v>
+        <v>10.54323822283349</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8303656347657112</v>
+        <v>0.439301592618062</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8303656347657112</v>
+        <v>0.439301592618062</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5867550287964447</v>
+        <v>0.3601863696949149</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -869,19 +869,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>25046.95151690647</v>
+        <v>21281.20995681025</v>
       </c>
       <c r="C4" t="n">
-        <v>158.2622870961571</v>
+        <v>145.8808073627585</v>
       </c>
       <c r="D4" t="n">
-        <v>158.2622870961571</v>
+        <v>145.8808073627585</v>
       </c>
       <c r="E4" t="n">
-        <v>1.318852392467976</v>
+        <v>1.215673394689654</v>
       </c>
       <c r="F4" t="n">
-        <v>1.318852392467976</v>
+        <v>1.215673394689654</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -895,22 +895,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>5856.04129080219</v>
+        <v>6077.974018953704</v>
       </c>
       <c r="C5" t="n">
-        <v>76.52477566646105</v>
+        <v>77.96136234670162</v>
       </c>
       <c r="D5" t="n">
-        <v>52.67828810074786</v>
+        <v>53.34021623726528</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0636464612551</v>
+        <v>1.096627859230491</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7893595877523016</v>
+        <v>0.7583575587808119</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7111301942919486</v>
+        <v>0.7020782459851072</v>
       </c>
       <c r="H5" t="n">
         <v>0.4545454545454541</v>

--- a/modelos/OBAGEM4428025/OBAGEM4428025_Sell in_metricas.xlsx
+++ b/modelos/OBAGEM4428025/OBAGEM4428025_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44964</v>
       </c>
       <c r="B2" t="n">
-        <v>69.59302307112617</v>
+        <v>46.71933307518596</v>
       </c>
       <c r="C2" t="n">
-        <v>33.88209984006837</v>
+        <v>17.93189091663039</v>
       </c>
       <c r="D2" t="n">
-        <v>100.046590839444</v>
+        <v>78.98816500003018</v>
       </c>
       <c r="E2" t="n">
         <v>288</v>
@@ -496,13 +496,13 @@
         <v>44971</v>
       </c>
       <c r="B3" t="n">
-        <v>107.1258042054921</v>
+        <v>100.1695053854039</v>
       </c>
       <c r="C3" t="n">
-        <v>67.21972371865218</v>
+        <v>62.64749506196252</v>
       </c>
       <c r="D3" t="n">
-        <v>147.676136278929</v>
+        <v>139.8232950592588</v>
       </c>
       <c r="E3" t="n">
         <v>48</v>
@@ -516,13 +516,13 @@
         <v>44980</v>
       </c>
       <c r="B4" t="n">
-        <v>-20.96683803288543</v>
+        <v>-14.86483207943189</v>
       </c>
       <c r="C4" t="n">
-        <v>-60.82512471830602</v>
+        <v>-54.38701953898772</v>
       </c>
       <c r="D4" t="n">
-        <v>19.60809714522856</v>
+        <v>24.3450321908869</v>
       </c>
       <c r="E4" t="n">
         <v>36</v>
@@ -536,13 +536,13 @@
         <v>44985</v>
       </c>
       <c r="B5" t="n">
-        <v>60.23298832524795</v>
+        <v>62.07041955590721</v>
       </c>
       <c r="C5" t="n">
-        <v>18.33179240690819</v>
+        <v>23.71450369776099</v>
       </c>
       <c r="D5" t="n">
-        <v>96.22974551117912</v>
+        <v>102.4895023572277</v>
       </c>
       <c r="E5" t="n">
         <v>36</v>
@@ -556,13 +556,13 @@
         <v>44988</v>
       </c>
       <c r="B6" t="n">
-        <v>34.54323822283349</v>
+        <v>41.63099922425031</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.055903303988704</v>
+        <v>3.306572758761913</v>
       </c>
       <c r="D6" t="n">
-        <v>74.99698277112428</v>
+        <v>79.16313040425413</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
@@ -576,13 +576,13 @@
         <v>44992</v>
       </c>
       <c r="B7" t="n">
-        <v>90.39213823386609</v>
+        <v>91.30918513386668</v>
       </c>
       <c r="C7" t="n">
-        <v>51.02125595877516</v>
+        <v>54.75170203881807</v>
       </c>
       <c r="D7" t="n">
-        <v>130.7257923162297</v>
+        <v>126.6591224539266</v>
       </c>
       <c r="E7" t="n">
         <v>48</v>
@@ -596,13 +596,13 @@
         <v>44999</v>
       </c>
       <c r="B8" t="n">
-        <v>109.8994001881512</v>
+        <v>104.7584237919156</v>
       </c>
       <c r="C8" t="n">
-        <v>70.71677550032975</v>
+        <v>67.68257820605081</v>
       </c>
       <c r="D8" t="n">
-        <v>149.2570548558778</v>
+        <v>139.4154248541738</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
@@ -616,13 +616,13 @@
         <v>45006</v>
       </c>
       <c r="B9" t="n">
-        <v>90.14485216057416</v>
+        <v>81.29628589554331</v>
       </c>
       <c r="C9" t="n">
-        <v>49.5854335655551</v>
+        <v>42.27549818996127</v>
       </c>
       <c r="D9" t="n">
-        <v>130.746689738933</v>
+        <v>121.9531484076637</v>
       </c>
       <c r="E9" t="n">
         <v>36</v>
@@ -636,13 +636,13 @@
         <v>45020</v>
       </c>
       <c r="B10" t="n">
-        <v>38.30169538929096</v>
+        <v>35.99405168708117</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.680413120647819</v>
+        <v>-4.654490902964564</v>
       </c>
       <c r="D10" t="n">
-        <v>79.83189799399509</v>
+        <v>73.33862198938159</v>
       </c>
       <c r="E10" t="n">
         <v>60</v>
@@ -656,13 +656,13 @@
         <v>45027</v>
       </c>
       <c r="B11" t="n">
-        <v>43.17698675074352</v>
+        <v>39.42744518092638</v>
       </c>
       <c r="C11" t="n">
-        <v>1.328498211633235</v>
+        <v>-1.310517679217722</v>
       </c>
       <c r="D11" t="n">
-        <v>82.51004815947063</v>
+        <v>78.13537392341053</v>
       </c>
       <c r="E11" t="n">
         <v>84</v>
@@ -676,13 +676,13 @@
         <v>45040</v>
       </c>
       <c r="B12" t="n">
-        <v>-25.88080736275847</v>
+        <v>-31.84105127425183</v>
       </c>
       <c r="C12" t="n">
-        <v>-65.89903080125107</v>
+        <v>-68.81471991909059</v>
       </c>
       <c r="D12" t="n">
-        <v>18.26918908994063</v>
+        <v>5.010166973997311</v>
       </c>
       <c r="E12" t="n">
         <v>120</v>
@@ -696,13 +696,13 @@
         <v>45048</v>
       </c>
       <c r="B13" t="n">
-        <v>41.48428181581499</v>
+        <v>38.23604691411833</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.277659497725823</v>
+        <v>-1.318004301972194</v>
       </c>
       <c r="D13" t="n">
-        <v>82.92176813599936</v>
+        <v>79.64987649388277</v>
       </c>
       <c r="E13" t="n">
         <v>48</v>
@@ -716,13 +716,13 @@
         <v>45055</v>
       </c>
       <c r="B14" t="n">
-        <v>29.84373322976138</v>
+        <v>28.74038112493322</v>
       </c>
       <c r="C14" t="n">
-        <v>-15.50654637921041</v>
+        <v>-11.31978099369814</v>
       </c>
       <c r="D14" t="n">
-        <v>73.77425592562936</v>
+        <v>71.96361770759563</v>
       </c>
       <c r="E14" t="n">
         <v>36</v>
@@ -736,13 +736,13 @@
         <v>45062</v>
       </c>
       <c r="B15" t="n">
-        <v>39.34691575332356</v>
+        <v>36.73422567120285</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.331658093675609</v>
+        <v>-4.30823910809367</v>
       </c>
       <c r="D15" t="n">
-        <v>81.87470375720031</v>
+        <v>76.7584583198998</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
@@ -817,19 +817,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3245.220635465002</v>
+        <v>2587.231142468804</v>
       </c>
       <c r="C2" t="n">
-        <v>56.96683803288543</v>
+        <v>50.86483207943189</v>
       </c>
       <c r="D2" t="n">
-        <v>56.96683803288543</v>
+        <v>50.86483207943189</v>
       </c>
       <c r="E2" t="n">
-        <v>1.582412167580151</v>
+        <v>1.412912002206441</v>
       </c>
       <c r="F2" t="n">
-        <v>1.582412167580151</v>
+        <v>1.412912002206441</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -843,22 +843,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>111.159872223417</v>
+        <v>310.852133645515</v>
       </c>
       <c r="C3" t="n">
-        <v>10.54323822283349</v>
+        <v>17.63099922425031</v>
       </c>
       <c r="D3" t="n">
-        <v>10.54323822283349</v>
+        <v>17.63099922425031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.439301592618062</v>
+        <v>0.7346249676770963</v>
       </c>
       <c r="F3" t="n">
-        <v>0.439301592618062</v>
+        <v>0.7346249676770963</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3601863696949149</v>
+        <v>0.5372765745652628</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -869,19 +869,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>21281.20995681025</v>
+        <v>23055.70485206997</v>
       </c>
       <c r="C4" t="n">
-        <v>145.8808073627585</v>
+        <v>151.8410512742518</v>
       </c>
       <c r="D4" t="n">
-        <v>145.8808073627585</v>
+        <v>151.8410512742518</v>
       </c>
       <c r="E4" t="n">
-        <v>1.215673394689654</v>
+        <v>1.265342093952099</v>
       </c>
       <c r="F4" t="n">
-        <v>1.215673394689654</v>
+        <v>1.265342093952099</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -895,22 +895,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>6077.974018953704</v>
+        <v>6853.623937185184</v>
       </c>
       <c r="C5" t="n">
-        <v>77.96136234670162</v>
+        <v>82.78661689660464</v>
       </c>
       <c r="D5" t="n">
-        <v>53.34021623726528</v>
+        <v>54.4746170410541</v>
       </c>
       <c r="E5" t="n">
-        <v>1.096627859230491</v>
+        <v>1.051931301967437</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7583575587808119</v>
+        <v>0.8377800934889376</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7020782459851072</v>
+        <v>0.7285686677747423</v>
       </c>
       <c r="H5" t="n">
         <v>0.4545454545454541</v>
